--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_30_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_30_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14200.0685776175</v>
+        <v>2825813.646945882</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14200.0685776175</v>
+        <v>2825813.646945882</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>37590.59092370101</v>
+        <v>2257896.193914501</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>37590.59092370101</v>
+        <v>2257896.193914501</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1038146899.546118</v>
+        <v>43533484.73324335</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11519.24521199655</v>
+        <v>1287768.295257818</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20333.13544749881</v>
+        <v>2113609.837114643</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29146.99202680978</v>
+        <v>2939451.378971469</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>38773.09548443214</v>
+        <v>3723950.672905963</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>48472.09474828379</v>
+        <v>4522956.232280091</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>57741.90853732119</v>
+        <v>5362722.863800392</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>66938.8430666413</v>
+        <v>6187986.522636947</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>76135.77759596142</v>
+        <v>7013250.181473505</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>85767.33094325232</v>
+        <v>7796584.45164548</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>95466.92174810529</v>
+        <v>8595598.429308031</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>105165.1934894577</v>
+        <v>9394342.373659763</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>114863.4652308102</v>
+        <v>10193086.31801151</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>124561.6985531604</v>
+        <v>10991830.26236325</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>134259.9702945128</v>
+        <v>11790574.206715</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>143965.1555801402</v>
+        <v>12588561.23261594</v>
       </c>
     </row>
   </sheetData>
